--- a/biology/Médecine/Omentum/Omentum.xlsx
+++ b/biology/Médecine/Omentum/Omentum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'épiploon ou omentum correspond à deux feuillets de péritoine accolés et qui relient deux viscères entre eux. Il ne faut pas le confondre avec un ligament qui correspond à un accolement de deux feuillets du péritoine reliant le péritoine pariétal antérieur à un viscère (exemple : le ligament suspenseur du foie), et avec un méso qui correspond à un accolement de deux feuillets du péritoine reliant le péritoine pariétal postérieur à un viscère et contenant les vaisseaux nourriciers (ex. : le mésentère de l'intestin grêle). 
 Le grand épiploon ou grand omentum va de l'estomac au côlon transverse et forme un tablier à double feuillet qui se retrouve à la surface des intestins. Le grand épiploon est constitué par les ligaments gastro-phrénique, gastro-splénique et gastro-colique.
@@ -515,7 +527,9 @@
           <t>Grand omentum</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le grand omentum ou grand epiploon est une structure péritonéale formée par l'accolement de 2 méso de péritoine viscéral, il représente un grand tablier graisseux déployé dans la cavité abdominale. Il est issu du développement caudal de la poche rétro-gastrique. Il constitue un repère important en termes d'anatomie, régionalisant la cavité abdominale en trois parties distinctes, sus mésocolique, au-dessus de celui-ci, sous mésocolique, au-dessous de celui-ci (ce qu'il recouvre, en l'occurrence le jejunum et l'iléum ou intestin grêle), et la région pelvienne.
 Il est constitué majoritairement de cellules adipeuses. Sa vascularisation importante se fait par les artères gastro-épiploïques qui forment dans le grand omentum l'arcade de Barkow.
@@ -547,10 +561,12 @@
           <t>Petit omentum</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le petit omentum ou petit épiploon est composé des ligaments hépato-gastrique et hépato-duodénal.
-Le ligament hépato-duodénal, c'est-à-dire le bord libre droit du petit omentum, recouvre et protège la triade porte hépatique. Celle-ci reprend la veine porte hépatique, l'artère hépatique propre et le conduit biliaire commun[1].
+Le ligament hépato-duodénal, c'est-à-dire le bord libre droit du petit omentum, recouvre et protège la triade porte hépatique. Celle-ci reprend la veine porte hépatique, l'artère hépatique propre et le conduit biliaire commun.
 </t>
         </is>
       </c>
@@ -579,7 +595,9 @@
           <t>Pathologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les principales affections le concernant sont :
 l'infarctus du grand épiploon qui se traduit par un syndrome douloureux abdominal plus ou moins intense, et au scanner par un épaississement localisé du grand épiploon .
